--- a/Survey results.xlsx
+++ b/Survey results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="201">
   <si>
     <t>Serial Number</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Your age group</t>
     </r>
     <r>
@@ -399,147 +405,138 @@
     <t>51~60</t>
   </si>
   <si>
-    <t>2025/5/21 21:09:23</t>
-  </si>
-  <si>
-    <t>114s</t>
+    <t>2025/5/22 17:11:04</t>
+  </si>
+  <si>
+    <t>250s</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:12:34</t>
+  </si>
+  <si>
+    <t>253s</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:12:56</t>
+  </si>
+  <si>
+    <t>312s</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Over 60</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:14:23</t>
+  </si>
+  <si>
+    <t>174s</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:14:47</t>
+  </si>
+  <si>
+    <t>204s</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:15:34</t>
+  </si>
+  <si>
+    <t>197s</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:15:58</t>
+  </si>
+  <si>
+    <t>288s</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:17:12</t>
+  </si>
+  <si>
+    <t>242s</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:17:27</t>
+  </si>
+  <si>
+    <t>104s</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:18:35</t>
+  </si>
+  <si>
+    <t>110s</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:19:07</t>
+  </si>
+  <si>
+    <t>137s</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2025/5/22 17:20:52</t>
+  </si>
+  <si>
+    <t>105s</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>31~40</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:11:04</t>
-  </si>
-  <si>
-    <t>250s</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:12:34</t>
-  </si>
-  <si>
-    <t>253s</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:12:56</t>
-  </si>
-  <si>
-    <t>312s</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Over 60</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:14:23</t>
-  </si>
-  <si>
-    <t>174s</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:14:47</t>
-  </si>
-  <si>
-    <t>204s</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:15:34</t>
-  </si>
-  <si>
-    <t>197s</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:15:58</t>
-  </si>
-  <si>
-    <t>288s</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:17:12</t>
-  </si>
-  <si>
-    <t>242s</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:17:27</t>
-  </si>
-  <si>
-    <t>104s</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:18:35</t>
-  </si>
-  <si>
-    <t>110s</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:19:07</t>
-  </si>
-  <si>
-    <t>137s</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2025/5/22 17:20:52</t>
-  </si>
-  <si>
-    <t>105s</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>76</t>
   </si>
   <si>
-    <t>60以上</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -867,51 +861,6 @@
     <t>837s</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>2025/5/23 8:44:50</t>
-  </si>
-  <si>
-    <t>145s</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>18~25</t>
-  </si>
-  <si>
-    <t>2025/5/23 8:48:13</t>
-  </si>
-  <si>
-    <t>160s</t>
-  </si>
-  <si>
-    <t>2025/5/23 8:52:31</t>
-  </si>
-  <si>
-    <t>366s</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>2025/5/23 9:16:16</t>
-  </si>
-  <si>
-    <t>146s</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>2025/5/23 10:10:29</t>
-  </si>
-  <si>
-    <t>218s</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -958,21 +907,6 @@
   </si>
   <si>
     <t>1127s</t>
-  </si>
-  <si>
-    <t>2025/5/24 19:30:21</t>
-  </si>
-  <si>
-    <t>310s</t>
-  </si>
-  <si>
-    <t>Under 18</t>
-  </si>
-  <si>
-    <t>2025/5/24 19:32:57</t>
-  </si>
-  <si>
-    <t>41~50</t>
   </si>
 </sst>
 </file>
@@ -2150,10 +2084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2333,7 +2267,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -2345,16 +2279,16 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -2363,7 +2297,7 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
@@ -2372,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -2381,19 +2315,19 @@
         <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
         <v>28</v>
@@ -2402,27 +2336,27 @@
         <v>29</v>
       </c>
       <c r="X3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -2431,7 +2365,7 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -2443,7 +2377,7 @@
         <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
@@ -2458,13 +2392,13 @@
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
         <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U4" t="s">
         <v>28</v>
@@ -2481,37 +2415,37 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>28</v>
@@ -2526,19 +2460,19 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S5" t="s">
         <v>28</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
         <v>28</v>
@@ -2550,21 +2484,21 @@
         <v>29</v>
       </c>
       <c r="X5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -2594,13 +2528,13 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
         <v>29</v>
@@ -2609,22 +2543,22 @@
         <v>28</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U6" t="s">
         <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -2644,28 +2578,28 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
         <v>28</v>
@@ -2674,19 +2608,19 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s">
         <v>28</v>
@@ -2695,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="W7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="X7" t="s">
         <v>32</v>
@@ -2718,46 +2652,46 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
@@ -2766,10 +2700,10 @@
         <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X8" t="s">
         <v>32</v>
@@ -2792,7 +2726,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -2804,43 +2738,43 @@
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" t="s">
         <v>28</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s">
         <v>28</v>
@@ -2860,46 +2794,46 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
         <v>28</v>
@@ -2914,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X10" t="s">
         <v>32</v>
@@ -2925,52 +2859,52 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
         <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
         <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
@@ -2982,16 +2916,16 @@
         <v>28</v>
       </c>
       <c r="T11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X11" t="s">
         <v>32</v>
@@ -3008,46 +2942,46 @@
         <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
         <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
         <v>28</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R12" t="s">
         <v>28</v>
@@ -3056,16 +2990,16 @@
         <v>28</v>
       </c>
       <c r="T12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X12" t="s">
         <v>32</v>
@@ -3073,58 +3007,58 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" t="s">
-        <v>31</v>
-      </c>
       <c r="O13" t="s">
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S13" t="s">
         <v>28</v>
@@ -3136,13 +3070,13 @@
         <v>30</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -3162,61 +3096,61 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
         <v>28</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W14" t="s">
         <v>29</v>
       </c>
       <c r="X14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3227,43 +3161,43 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
         <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
         <v>28</v>
@@ -3272,25 +3206,25 @@
         <v>28</v>
       </c>
       <c r="R15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W15" t="s">
         <v>29</v>
       </c>
-      <c r="X15" t="s">
-        <v>32</v>
+      <c r="X15" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3301,55 +3235,55 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T16" t="s">
         <v>30</v>
@@ -3358,13 +3292,13 @@
         <v>30</v>
       </c>
       <c r="V16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X16" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -3381,40 +3315,40 @@
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
         <v>30</v>
@@ -3423,19 +3357,19 @@
         <v>30</v>
       </c>
       <c r="S17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
         <v>30</v>
       </c>
       <c r="U17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X17" t="s">
         <v>32</v>
@@ -3452,10 +3386,10 @@
         <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -3464,7 +3398,7 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -3491,19 +3425,19 @@
         <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R18" t="s">
         <v>30</v>
       </c>
       <c r="S18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V18" t="s">
         <v>28</v>
@@ -3517,52 +3451,52 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
         <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M19" t="s">
         <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
         <v>28</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="s">
         <v>28</v>
@@ -3571,19 +3505,19 @@
         <v>30</v>
       </c>
       <c r="S19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V19" t="s">
         <v>28</v>
       </c>
       <c r="W19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X19" t="s">
         <v>32</v>
@@ -3591,91 +3525,91 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
       <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" t="s">
         <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" t="s">
-        <v>30</v>
-      </c>
-      <c r="S20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" t="s">
-        <v>30</v>
-      </c>
-      <c r="X20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" t="s">
         <v>28</v>
       </c>
@@ -3683,10 +3617,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -3701,25 +3635,25 @@
         <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T21" t="s">
         <v>24</v>
@@ -3728,13 +3662,13 @@
         <v>31</v>
       </c>
       <c r="V21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -3748,16 +3682,16 @@
         <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -3775,7 +3709,7 @@
         <v>28</v>
       </c>
       <c r="M22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
@@ -3793,90 +3727,90 @@
         <v>28</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22" t="s">
         <v>24</v>
       </c>
       <c r="U22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X22" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>105</v>
       </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
         <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R23" t="s">
         <v>28</v>
       </c>
       <c r="S23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W23" t="s">
         <v>29</v>
@@ -3887,64 +3821,64 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="B24" t="s">
-        <v>108</v>
-      </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
         <v>31</v>
       </c>
       <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
         <v>24</v>
       </c>
-      <c r="K24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" t="s">
-        <v>29</v>
-      </c>
       <c r="Q24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S24" t="s">
         <v>29</v>
       </c>
       <c r="T24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U24" t="s">
         <v>29</v>
@@ -3953,7 +3887,7 @@
         <v>29</v>
       </c>
       <c r="W24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X24" t="s">
         <v>32</v>
@@ -3961,16 +3895,16 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -3979,52 +3913,52 @@
         <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
         <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M25" t="s">
         <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T25" t="s">
         <v>28</v>
       </c>
       <c r="U25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W25" t="s">
         <v>28</v>
@@ -4035,34 +3969,34 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K26" t="s">
         <v>28</v>
@@ -4074,10 +4008,10 @@
         <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
@@ -4098,10 +4032,10 @@
         <v>31</v>
       </c>
       <c r="V26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X26" t="s">
         <v>32</v>
@@ -4109,46 +4043,46 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
         <v>115</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O27" t="s">
         <v>31</v>
@@ -4160,13 +4094,13 @@
         <v>30</v>
       </c>
       <c r="R27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S27" t="s">
         <v>30</v>
       </c>
       <c r="T27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U27" t="s">
         <v>31</v>
@@ -4175,7 +4109,7 @@
         <v>28</v>
       </c>
       <c r="W27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X27" t="s">
         <v>32</v>
@@ -4189,19 +4123,19 @@
         <v>119</v>
       </c>
       <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
         <v>120</v>
       </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -4216,16 +4150,16 @@
         <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
         <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28" t="s">
         <v>30</v>
@@ -4234,22 +4168,22 @@
         <v>30</v>
       </c>
       <c r="R28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S28" t="s">
         <v>30</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V28" t="s">
         <v>28</v>
       </c>
       <c r="W28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X28" t="s">
         <v>32</v>
@@ -4257,19 +4191,19 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
         <v>122</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -4278,40 +4212,40 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
       </c>
       <c r="Q29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T29" t="s">
         <v>28</v>
@@ -4320,10 +4254,10 @@
         <v>30</v>
       </c>
       <c r="V29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X29" t="s">
         <v>32</v>
@@ -4331,73 +4265,73 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>127</v>
       </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
       <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" t="s">
-        <v>31</v>
-      </c>
       <c r="O30" t="s">
         <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S30" t="s">
         <v>28</v>
       </c>
       <c r="T30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U30" t="s">
         <v>30</v>
       </c>
       <c r="V30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X30" t="s">
         <v>32</v>
@@ -4414,19 +4348,19 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
         <v>28</v>
@@ -4441,10 +4375,10 @@
         <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O31" t="s">
         <v>29</v>
@@ -4453,7 +4387,7 @@
         <v>28</v>
       </c>
       <c r="Q31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R31" t="s">
         <v>28</v>
@@ -4462,66 +4396,66 @@
         <v>28</v>
       </c>
       <c r="T31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W31" t="s">
         <v>29</v>
       </c>
       <c r="X31" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
         <v>132</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
       <c r="E32" t="s">
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
         <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s">
         <v>28</v>
@@ -4530,75 +4464,75 @@
         <v>28</v>
       </c>
       <c r="R32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S32" t="s">
         <v>28</v>
       </c>
       <c r="T32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
         <v>135</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q33" t="s">
         <v>28</v>
@@ -4607,93 +4541,93 @@
         <v>29</v>
       </c>
       <c r="S33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
         <v>138</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>139</v>
       </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K34" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34" t="s">
         <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U34" t="s">
         <v>28</v>
       </c>
       <c r="V34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X34" t="s">
         <v>32</v>
@@ -4701,13 +4635,13 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
         <v>141</v>
       </c>
-      <c r="B35" t="s">
-        <v>142</v>
-      </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -4716,58 +4650,58 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X35" t="s">
         <v>32</v>
@@ -4775,37 +4709,37 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
         <v>144</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>145</v>
       </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>58</v>
-      </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L36" t="s">
         <v>28</v>
@@ -4814,37 +4748,37 @@
         <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O36" t="s">
         <v>29</v>
       </c>
       <c r="P36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R36" t="s">
         <v>29</v>
       </c>
       <c r="S36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T36" t="s">
         <v>28</v>
       </c>
       <c r="U36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W36" t="s">
         <v>28</v>
       </c>
       <c r="X36" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -4855,141 +4789,141 @@
         <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L37" t="s">
         <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q37" t="s">
         <v>28</v>
       </c>
       <c r="R37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="U37" t="s">
         <v>28</v>
       </c>
       <c r="V37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W37" t="s">
         <v>28</v>
       </c>
       <c r="X37" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L38" t="s">
         <v>28</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X38" t="s">
         <v>32</v>
@@ -4997,19 +4931,19 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
         <v>152</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
@@ -5018,10 +4952,10 @@
         <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
         <v>29</v>
@@ -5030,7 +4964,7 @@
         <v>29</v>
       </c>
       <c r="L39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M39" t="s">
         <v>28</v>
@@ -5039,25 +4973,25 @@
         <v>24</v>
       </c>
       <c r="O39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q39" t="s">
         <v>29</v>
       </c>
       <c r="R39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T39" t="s">
         <v>30</v>
       </c>
       <c r="U39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V39" t="s">
         <v>28</v>
@@ -5071,73 +5005,73 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
         <v>155</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>156</v>
       </c>
-      <c r="C40" t="s">
-        <v>157</v>
-      </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
         <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K40" t="s">
         <v>29</v>
       </c>
       <c r="L40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M40" t="s">
         <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X40" t="s">
         <v>32</v>
@@ -5145,34 +5079,34 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
         <v>158</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>159</v>
       </c>
-      <c r="C41" t="s">
-        <v>160</v>
-      </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
         <v>29</v>
@@ -5181,37 +5115,37 @@
         <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X41" t="s">
         <v>32</v>
@@ -5219,64 +5153,64 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
         <v>161</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>162</v>
       </c>
-      <c r="C42" t="s">
-        <v>163</v>
-      </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L42" t="s">
         <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N42" t="s">
         <v>24</v>
       </c>
       <c r="O42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S42" t="s">
         <v>30</v>
       </c>
       <c r="T42" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U42" t="s">
         <v>29</v>
@@ -5285,84 +5219,84 @@
         <v>28</v>
       </c>
       <c r="W42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X42" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
         <v>164</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>165</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>166</v>
       </c>
-      <c r="D43" t="s">
-        <v>103</v>
-      </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H43" t="s">
         <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K43" t="s">
         <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X43" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -5379,58 +5313,58 @@
         <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
         <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M44" t="s">
         <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P44" t="s">
         <v>31</v>
       </c>
       <c r="Q44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U44" t="s">
         <v>30</v>
       </c>
       <c r="V44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W44" t="s">
         <v>28</v>
@@ -5450,7 +5384,7 @@
         <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
@@ -5459,22 +5393,22 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
@@ -5483,31 +5417,31 @@
         <v>24</v>
       </c>
       <c r="O45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P45" t="s">
         <v>31</v>
       </c>
       <c r="Q45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R45" t="s">
         <v>28</v>
       </c>
       <c r="S45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V45" t="s">
         <v>28</v>
       </c>
       <c r="W45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X45" t="s">
         <v>32</v>
@@ -5515,73 +5449,73 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
         <v>175</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>176</v>
       </c>
-      <c r="C46" t="s">
-        <v>177</v>
-      </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L46" t="s">
         <v>28</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N46" t="s">
         <v>24</v>
       </c>
       <c r="O46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P46" t="s">
         <v>31</v>
       </c>
       <c r="Q46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X46" t="s">
         <v>32</v>
@@ -5589,31 +5523,31 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
         <v>178</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>179</v>
       </c>
-      <c r="C47" t="s">
-        <v>180</v>
-      </c>
       <c r="D47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
+        <v>177</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
@@ -5622,7 +5556,7 @@
         <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M47" t="s">
         <v>28</v>
@@ -5631,7 +5565,7 @@
         <v>24</v>
       </c>
       <c r="O47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P47" t="s">
         <v>31</v>
@@ -5646,16 +5580,16 @@
         <v>30</v>
       </c>
       <c r="T47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X47" t="s">
         <v>32</v>
@@ -5663,31 +5597,31 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
         <v>181</v>
       </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" t="s">
-        <v>183</v>
-      </c>
       <c r="D48" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s">
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -5696,16 +5630,16 @@
         <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N48" t="s">
         <v>24</v>
       </c>
       <c r="O48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P48" t="s">
         <v>31</v>
@@ -5714,16 +5648,16 @@
         <v>30</v>
       </c>
       <c r="R48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T48" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="V48" t="s">
         <v>28</v>
@@ -5737,46 +5671,46 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" t="s">
         <v>184</v>
       </c>
-      <c r="C49" t="s">
-        <v>185</v>
-      </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K49" t="s">
         <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -5788,75 +5722,75 @@
         <v>30</v>
       </c>
       <c r="R49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S49" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="T49" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V49" t="s">
         <v>28</v>
       </c>
       <c r="W49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X49" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
         <v>186</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>187</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>188</v>
       </c>
-      <c r="D50" t="s">
-        <v>124</v>
-      </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O50" t="s">
         <v>28</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q50" t="s">
         <v>30</v>
@@ -5865,10 +5799,10 @@
         <v>28</v>
       </c>
       <c r="S50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U50" t="s">
         <v>28</v>
@@ -5880,21 +5814,21 @@
         <v>28</v>
       </c>
       <c r="X50" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s">
         <v>189</v>
       </c>
-      <c r="B51" t="s">
-        <v>190</v>
-      </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
@@ -5903,220 +5837,220 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L51" t="s">
         <v>30</v>
       </c>
       <c r="M51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R51" t="s">
         <v>29</v>
       </c>
       <c r="S51" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T51" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X51" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N52" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q52" t="s">
         <v>28</v>
       </c>
       <c r="R52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T52" t="s">
         <v>30</v>
       </c>
       <c r="U52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X52" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>30</v>
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
         <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q53" t="s">
         <v>28</v>
       </c>
       <c r="R53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="X53" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
@@ -6128,72 +6062,72 @@
         <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K54" t="s">
         <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N54" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O54" t="s">
         <v>29</v>
       </c>
       <c r="P54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R54" t="s">
         <v>29</v>
       </c>
       <c r="S54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T54" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U54" t="s">
         <v>29</v>
       </c>
       <c r="V54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X54" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
       </c>
       <c r="F55" t="s">
         <v>29</v>
@@ -6205,69 +6139,69 @@
         <v>28</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M55" t="s">
         <v>28</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O55" t="s">
         <v>29</v>
       </c>
       <c r="P55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X55" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
         <v>29</v>
@@ -6276,10 +6210,10 @@
         <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J56" t="s">
         <v>29</v>
@@ -6288,635 +6222,43 @@
         <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N56" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O56" t="s">
         <v>28</v>
       </c>
       <c r="P56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q56" t="s">
         <v>30</v>
       </c>
       <c r="R56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T56" t="s">
         <v>28</v>
       </c>
       <c r="U56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W56" t="s">
         <v>28</v>
       </c>
       <c r="X56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" t="s">
-        <v>28</v>
-      </c>
-      <c r="N57" t="s">
-        <v>31</v>
-      </c>
-      <c r="O57" t="s">
-        <v>28</v>
-      </c>
-      <c r="P57" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" t="s">
-        <v>29</v>
-      </c>
-      <c r="S57" t="s">
-        <v>28</v>
-      </c>
-      <c r="T57" t="s">
-        <v>28</v>
-      </c>
-      <c r="U57" t="s">
-        <v>28</v>
-      </c>
-      <c r="V57" t="s">
-        <v>28</v>
-      </c>
-      <c r="W57" t="s">
-        <v>29</v>
-      </c>
-      <c r="X57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" t="s">
-        <v>186</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" t="s">
-        <v>31</v>
-      </c>
-      <c r="M58" t="s">
-        <v>28</v>
-      </c>
-      <c r="N58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O58" t="s">
-        <v>28</v>
-      </c>
-      <c r="P58" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>28</v>
-      </c>
-      <c r="R58" t="s">
-        <v>31</v>
-      </c>
-      <c r="S58" t="s">
-        <v>31</v>
-      </c>
-      <c r="T58" t="s">
-        <v>30</v>
-      </c>
-      <c r="U58" t="s">
-        <v>30</v>
-      </c>
-      <c r="V58" t="s">
-        <v>31</v>
-      </c>
-      <c r="W58" t="s">
-        <v>31</v>
-      </c>
-      <c r="X58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" t="s">
-        <v>31</v>
-      </c>
-      <c r="J59" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" t="s">
-        <v>30</v>
-      </c>
-      <c r="L59" t="s">
-        <v>31</v>
-      </c>
-      <c r="M59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" t="s">
-        <v>28</v>
-      </c>
-      <c r="P59" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>28</v>
-      </c>
-      <c r="R59" t="s">
-        <v>30</v>
-      </c>
-      <c r="S59" t="s">
-        <v>31</v>
-      </c>
-      <c r="T59" t="s">
-        <v>31</v>
-      </c>
-      <c r="U59" t="s">
-        <v>30</v>
-      </c>
-      <c r="V59" t="s">
-        <v>30</v>
-      </c>
-      <c r="W59" t="s">
-        <v>31</v>
-      </c>
-      <c r="X59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="A60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" t="s">
-        <v>29</v>
-      </c>
-      <c r="L60" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" t="s">
-        <v>28</v>
-      </c>
-      <c r="N60" t="s">
-        <v>30</v>
-      </c>
-      <c r="O60" t="s">
-        <v>29</v>
-      </c>
-      <c r="P60" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>28</v>
-      </c>
-      <c r="R60" t="s">
-        <v>29</v>
-      </c>
-      <c r="S60" t="s">
-        <v>28</v>
-      </c>
-      <c r="T60" t="s">
-        <v>30</v>
-      </c>
-      <c r="U60" t="s">
-        <v>29</v>
-      </c>
-      <c r="V60" t="s">
-        <v>28</v>
-      </c>
-      <c r="W60" t="s">
-        <v>29</v>
-      </c>
-      <c r="X60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="A61" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61" t="s">
         <v>42</v>
-      </c>
-      <c r="E61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" t="s">
-        <v>28</v>
-      </c>
-      <c r="N61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O61" t="s">
-        <v>29</v>
-      </c>
-      <c r="P61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" t="s">
-        <v>31</v>
-      </c>
-      <c r="S61" t="s">
-        <v>31</v>
-      </c>
-      <c r="T61" t="s">
-        <v>31</v>
-      </c>
-      <c r="U61" t="s">
-        <v>30</v>
-      </c>
-      <c r="V61" t="s">
-        <v>28</v>
-      </c>
-      <c r="W61" t="s">
-        <v>28</v>
-      </c>
-      <c r="X61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
-      <c r="A62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" t="s">
-        <v>28</v>
-      </c>
-      <c r="N62" t="s">
-        <v>24</v>
-      </c>
-      <c r="O62" t="s">
-        <v>28</v>
-      </c>
-      <c r="P62" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>30</v>
-      </c>
-      <c r="R62" t="s">
-        <v>29</v>
-      </c>
-      <c r="S62" t="s">
-        <v>30</v>
-      </c>
-      <c r="T62" t="s">
-        <v>28</v>
-      </c>
-      <c r="U62" t="s">
-        <v>30</v>
-      </c>
-      <c r="V62" t="s">
-        <v>30</v>
-      </c>
-      <c r="W62" t="s">
-        <v>28</v>
-      </c>
-      <c r="X62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" t="s">
-        <v>192</v>
-      </c>
-      <c r="B63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" t="s">
-        <v>221</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" t="s">
-        <v>28</v>
-      </c>
-      <c r="K63" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" t="s">
-        <v>29</v>
-      </c>
-      <c r="P63" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>29</v>
-      </c>
-      <c r="R63" t="s">
-        <v>29</v>
-      </c>
-      <c r="S63" t="s">
-        <v>31</v>
-      </c>
-      <c r="T63" t="s">
-        <v>24</v>
-      </c>
-      <c r="U63" t="s">
-        <v>29</v>
-      </c>
-      <c r="V63" t="s">
-        <v>29</v>
-      </c>
-      <c r="W63" t="s">
-        <v>28</v>
-      </c>
-      <c r="X63" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" t="s">
-        <v>30</v>
-      </c>
-      <c r="M64" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" t="s">
-        <v>29</v>
-      </c>
-      <c r="P64" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>29</v>
-      </c>
-      <c r="R64" t="s">
-        <v>29</v>
-      </c>
-      <c r="S64" t="s">
-        <v>31</v>
-      </c>
-      <c r="T64" t="s">
-        <v>24</v>
-      </c>
-      <c r="U64" t="s">
-        <v>29</v>
-      </c>
-      <c r="V64" t="s">
-        <v>29</v>
-      </c>
-      <c r="W64" t="s">
-        <v>28</v>
-      </c>
-      <c r="X64" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
